--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5308"/>
+  <dimension ref="A1:C5309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90669,6 +90669,23 @@
         </is>
       </c>
     </row>
+    <row r="5309">
+      <c r="A5309" t="inlineStr">
+        <is>
+          <t>2025-07-13</t>
+        </is>
+      </c>
+      <c r="B5309" t="inlineStr">
+        <is>
+          <t>1752364800</t>
+        </is>
+      </c>
+      <c r="C5309" t="inlineStr">
+        <is>
+          <t>859946007.06</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5309"/>
+  <dimension ref="A1:C5310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90686,6 +90686,23 @@
         </is>
       </c>
     </row>
+    <row r="5310">
+      <c r="A5310" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="B5310" t="inlineStr">
+        <is>
+          <t>1752451200</t>
+        </is>
+      </c>
+      <c r="C5310" t="inlineStr">
+        <is>
+          <t>910161827.21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5310"/>
+  <dimension ref="A1:C5311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90703,6 +90703,23 @@
         </is>
       </c>
     </row>
+    <row r="5311">
+      <c r="A5311" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="B5311" t="inlineStr">
+        <is>
+          <t>1752537600</t>
+        </is>
+      </c>
+      <c r="C5311" t="inlineStr">
+        <is>
+          <t>1029424417.01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5311"/>
+  <dimension ref="A1:C5312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90720,6 +90720,23 @@
         </is>
       </c>
     </row>
+    <row r="5312">
+      <c r="A5312" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="B5312" t="inlineStr">
+        <is>
+          <t>1752624000</t>
+        </is>
+      </c>
+      <c r="C5312" t="inlineStr">
+        <is>
+          <t>822284135.17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5312"/>
+  <dimension ref="A1:C5314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90737,6 +90737,40 @@
         </is>
       </c>
     </row>
+    <row r="5313">
+      <c r="A5313" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="B5313" t="inlineStr">
+        <is>
+          <t>1752710400</t>
+        </is>
+      </c>
+      <c r="C5313" t="inlineStr">
+        <is>
+          <t>853669023.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="5314">
+      <c r="A5314" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B5314" t="inlineStr">
+        <is>
+          <t>1752796800</t>
+        </is>
+      </c>
+      <c r="C5314" t="inlineStr">
+        <is>
+          <t>903884853.08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5314"/>
+  <dimension ref="A1:C5315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90771,6 +90771,23 @@
         </is>
       </c>
     </row>
+    <row r="5315">
+      <c r="A5315" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B5315" t="inlineStr">
+        <is>
+          <t>1752883200</t>
+        </is>
+      </c>
+      <c r="C5315" t="inlineStr">
+        <is>
+          <t>891330895.79</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5315"/>
+  <dimension ref="A1:C5316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90788,6 +90788,23 @@
         </is>
       </c>
     </row>
+    <row r="5316">
+      <c r="A5316" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B5316" t="inlineStr">
+        <is>
+          <t>1752969600</t>
+        </is>
+      </c>
+      <c r="C5316" t="inlineStr">
+        <is>
+          <t>935269741.81</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5316"/>
+  <dimension ref="A1:C5317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90805,6 +90805,23 @@
         </is>
       </c>
     </row>
+    <row r="5317">
+      <c r="A5317" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="B5317" t="inlineStr">
+        <is>
+          <t>1753056000</t>
+        </is>
+      </c>
+      <c r="C5317" t="inlineStr">
+        <is>
+          <t>941546724.97</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5317"/>
+  <dimension ref="A1:C5318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90822,6 +90822,23 @@
         </is>
       </c>
     </row>
+    <row r="5318">
+      <c r="A5318" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="B5318" t="inlineStr">
+        <is>
+          <t>1753142400</t>
+        </is>
+      </c>
+      <c r="C5318" t="inlineStr">
+        <is>
+          <t>941546724.97</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5318"/>
+  <dimension ref="A1:C5321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90839,6 +90839,57 @@
         </is>
       </c>
     </row>
+    <row r="5319">
+      <c r="A5319" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B5319" t="inlineStr">
+        <is>
+          <t>1753228800</t>
+        </is>
+      </c>
+      <c r="C5319" t="inlineStr">
+        <is>
+          <t>878776938.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="5320">
+      <c r="A5320" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B5320" t="inlineStr">
+        <is>
+          <t>1753315200</t>
+        </is>
+      </c>
+      <c r="C5320" t="inlineStr">
+        <is>
+          <t>922715784.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="5321">
+      <c r="A5321" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="B5321" t="inlineStr">
+        <is>
+          <t>1753401600</t>
+        </is>
+      </c>
+      <c r="C5321" t="inlineStr">
+        <is>
+          <t>1004316502.42</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5321"/>
+  <dimension ref="A1:C5322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90890,6 +90890,23 @@
         </is>
       </c>
     </row>
+    <row r="5322">
+      <c r="A5322" t="inlineStr">
+        <is>
+          <t>2025-07-26</t>
+        </is>
+      </c>
+      <c r="B5322" t="inlineStr">
+        <is>
+          <t>1753488000</t>
+        </is>
+      </c>
+      <c r="C5322" t="inlineStr">
+        <is>
+          <t>970368223.05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5322"/>
+  <dimension ref="A1:C5323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90907,6 +90907,23 @@
         </is>
       </c>
     </row>
+    <row r="5323">
+      <c r="A5323" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="B5323" t="inlineStr">
+        <is>
+          <t>1753574400</t>
+        </is>
+      </c>
+      <c r="C5323" t="inlineStr">
+        <is>
+          <t>869131964.33</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5323"/>
+  <dimension ref="A1:C5324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90924,6 +90924,23 @@
         </is>
       </c>
     </row>
+    <row r="5324">
+      <c r="A5324" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="B5324" t="inlineStr">
+        <is>
+          <t>1753660800</t>
+        </is>
+      </c>
+      <c r="C5324" t="inlineStr">
+        <is>
+          <t>919884190.69</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5324"/>
+  <dimension ref="A1:C5325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90941,6 +90941,23 @@
         </is>
       </c>
     </row>
+    <row r="5325">
+      <c r="A5325" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="B5325" t="inlineStr">
+        <is>
+          <t>1753747200</t>
+        </is>
+      </c>
+      <c r="C5325" t="inlineStr">
+        <is>
+          <t>710531242.11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5325"/>
+  <dimension ref="A1:C5326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90958,6 +90958,23 @@
         </is>
       </c>
     </row>
+    <row r="5326">
+      <c r="A5326" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="B5326" t="inlineStr">
+        <is>
+          <t>1753833600</t>
+        </is>
+      </c>
+      <c r="C5326" t="inlineStr">
+        <is>
+          <t>869131964.33</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5326"/>
+  <dimension ref="A1:C5327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90975,6 +90975,23 @@
         </is>
       </c>
     </row>
+    <row r="5327">
+      <c r="A5327" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="B5327" t="inlineStr">
+        <is>
+          <t>1753920000</t>
+        </is>
+      </c>
+      <c r="C5327" t="inlineStr">
+        <is>
+          <t>976980451.05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5327"/>
+  <dimension ref="A1:C5328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90992,6 +90992,23 @@
         </is>
       </c>
     </row>
+    <row r="5328">
+      <c r="A5328" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="B5328" t="inlineStr">
+        <is>
+          <t>1754006400</t>
+        </is>
+      </c>
+      <c r="C5328" t="inlineStr">
+        <is>
+          <t>957948367.31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5328"/>
+  <dimension ref="A1:C5329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91009,6 +91009,23 @@
         </is>
       </c>
     </row>
+    <row r="5329">
+      <c r="A5329" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+      <c r="B5329" t="inlineStr">
+        <is>
+          <t>1754092800</t>
+        </is>
+      </c>
+      <c r="C5329" t="inlineStr">
+        <is>
+          <t>919884190.69</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5329"/>
+  <dimension ref="A1:C5330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91026,6 +91026,23 @@
         </is>
       </c>
     </row>
+    <row r="5330">
+      <c r="A5330" t="inlineStr">
+        <is>
+          <t>2025-08-03</t>
+        </is>
+      </c>
+      <c r="B5330" t="inlineStr">
+        <is>
+          <t>1754179200</t>
+        </is>
+      </c>
+      <c r="C5330" t="inlineStr">
+        <is>
+          <t>983324485.05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5330"/>
+  <dimension ref="A1:C5331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91043,6 +91043,23 @@
         </is>
       </c>
     </row>
+    <row r="5331">
+      <c r="A5331" t="inlineStr">
+        <is>
+          <t>2025-08-04</t>
+        </is>
+      </c>
+      <c r="B5331" t="inlineStr">
+        <is>
+          <t>1754265600</t>
+        </is>
+      </c>
+      <c r="C5331" t="inlineStr">
+        <is>
+          <t>1084828946.91</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5331"/>
+  <dimension ref="A1:C5332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91060,6 +91060,23 @@
         </is>
       </c>
     </row>
+    <row r="5332">
+      <c r="A5332" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="B5332" t="inlineStr">
+        <is>
+          <t>1754352000</t>
+        </is>
+      </c>
+      <c r="C5332" t="inlineStr">
+        <is>
+          <t>875475989.20</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5332"/>
+  <dimension ref="A1:C5333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91077,6 +91077,23 @@
         </is>
       </c>
     </row>
+    <row r="5333">
+      <c r="A5333" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="B5333" t="inlineStr">
+        <is>
+          <t>1754438400</t>
+        </is>
+      </c>
+      <c r="C5333" t="inlineStr">
+        <is>
+          <t>913540165.82</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5333"/>
+  <dimension ref="A1:C5334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91094,6 +91094,23 @@
         </is>
       </c>
     </row>
+    <row r="5334">
+      <c r="A5334" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="B5334" t="inlineStr">
+        <is>
+          <t>1754524800</t>
+        </is>
+      </c>
+      <c r="C5334" t="inlineStr">
+        <is>
+          <t>1021388661.67</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5334"/>
+  <dimension ref="A1:C5336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91111,6 +91111,40 @@
         </is>
       </c>
     </row>
+    <row r="5335">
+      <c r="A5335" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B5335" t="inlineStr">
+        <is>
+          <t>1754611200</t>
+        </is>
+      </c>
+      <c r="C5335" t="inlineStr">
+        <is>
+          <t>870936594.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="5336">
+      <c r="A5336" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B5336" t="inlineStr">
+        <is>
+          <t>1754697600</t>
+        </is>
+      </c>
+      <c r="C5336" t="inlineStr">
+        <is>
+          <t>746374217.51</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5336"/>
+  <dimension ref="A1:C5337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91145,6 +91145,23 @@
         </is>
       </c>
     </row>
+    <row r="5337">
+      <c r="A5337" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B5337" t="inlineStr">
+        <is>
+          <t>1754784000</t>
+        </is>
+      </c>
+      <c r="C5337" t="inlineStr">
+        <is>
+          <t>868625162.14</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5337"/>
+  <dimension ref="A1:C5338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91162,6 +91162,23 @@
         </is>
       </c>
     </row>
+    <row r="5338">
+      <c r="A5338" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B5338" t="inlineStr">
+        <is>
+          <t>1754870400</t>
+        </is>
+      </c>
+      <c r="C5338" t="inlineStr">
+        <is>
+          <t>945836284.57</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5338"/>
+  <dimension ref="A1:C5339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91179,6 +91179,23 @@
         </is>
       </c>
     </row>
+    <row r="5339">
+      <c r="A5339" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="B5339" t="inlineStr">
+        <is>
+          <t>1754956800</t>
+        </is>
+      </c>
+      <c r="C5339" t="inlineStr">
+        <is>
+          <t>881493684.09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5339"/>
+  <dimension ref="A1:C5343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91196,6 +91196,74 @@
         </is>
       </c>
     </row>
+    <row r="5340">
+      <c r="A5340" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="B5340" t="inlineStr">
+        <is>
+          <t>1755043200</t>
+        </is>
+      </c>
+      <c r="C5340" t="inlineStr">
+        <is>
+          <t>1003744628.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="5341">
+      <c r="A5341" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="B5341" t="inlineStr">
+        <is>
+          <t>1755129600</t>
+        </is>
+      </c>
+      <c r="C5341" t="inlineStr">
+        <is>
+          <t>1042350194.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="5342">
+      <c r="A5342" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+      <c r="B5342" t="inlineStr">
+        <is>
+          <t>1755216000</t>
+        </is>
+      </c>
+      <c r="C5342" t="inlineStr">
+        <is>
+          <t>862190905.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="5343">
+      <c r="A5343" t="inlineStr">
+        <is>
+          <t>2025-08-16</t>
+        </is>
+      </c>
+      <c r="B5343" t="inlineStr">
+        <is>
+          <t>1755302400</t>
+        </is>
+      </c>
+      <c r="C5343" t="inlineStr">
+        <is>
+          <t>978007594.08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5343"/>
+  <dimension ref="A1:C5344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91264,6 +91264,23 @@
         </is>
       </c>
     </row>
+    <row r="5344">
+      <c r="A5344" t="inlineStr">
+        <is>
+          <t>2025-08-17</t>
+        </is>
+      </c>
+      <c r="B5344" t="inlineStr">
+        <is>
+          <t>1755388800</t>
+        </is>
+      </c>
+      <c r="C5344" t="inlineStr">
+        <is>
+          <t>978007594.08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5344"/>
+  <dimension ref="A1:C5345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91281,6 +91281,23 @@
         </is>
       </c>
     </row>
+    <row r="5345">
+      <c r="A5345" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="B5345" t="inlineStr">
+        <is>
+          <t>1755475200</t>
+        </is>
+      </c>
+      <c r="C5345" t="inlineStr">
+        <is>
+          <t>990876106.76</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5366"/>
+  <dimension ref="A1:B5367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54095,6 +54095,16 @@
         <v>1082012600.46</v>
       </c>
     </row>
+    <row r="5367">
+      <c r="A5367" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B5367" t="n">
+        <v>1129350650.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5367"/>
+  <dimension ref="A1:B5368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54105,6 +54105,16 @@
         <v>1129350650.7</v>
       </c>
     </row>
+    <row r="5368">
+      <c r="A5368" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B5368" t="n">
+        <v>1149638393.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5368"/>
+  <dimension ref="A1:B5369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54115,6 +54115,16 @@
         <v>1149638393.47</v>
       </c>
     </row>
+    <row r="5369">
+      <c r="A5369" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B5369" t="n">
+        <v>1014386817.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5369"/>
+  <dimension ref="A1:B5370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54125,6 +54125,16 @@
         <v>1014386817.2</v>
       </c>
     </row>
+    <row r="5370">
+      <c r="A5370" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B5370" t="n">
+        <v>811509447.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5370"/>
+  <dimension ref="A1:B5371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54135,6 +54135,16 @@
         <v>811509447.91</v>
       </c>
     </row>
+    <row r="5371">
+      <c r="A5371" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B5371" t="n">
+        <v>953523608.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5371"/>
+  <dimension ref="A1:B5372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54145,6 +54145,16 @@
         <v>953523608.36</v>
       </c>
     </row>
+    <row r="5372">
+      <c r="A5372" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B5372" t="n">
+        <v>1034674550.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5372"/>
+  <dimension ref="A1:B5373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54155,6 +54155,16 @@
         <v>1034674550.23</v>
       </c>
     </row>
+    <row r="5373">
+      <c r="A5373" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B5373" t="n">
+        <v>1102300333.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5373"/>
+  <dimension ref="A1:B5374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54165,6 +54165,16 @@
         <v>1102300333.5</v>
       </c>
     </row>
+    <row r="5374">
+      <c r="A5374" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B5374" t="n">
+        <v>1082012600.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5374"/>
+  <dimension ref="A1:B5375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54175,6 +54175,16 @@
         <v>1082012600.46</v>
       </c>
     </row>
+    <row r="5375">
+      <c r="A5375" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B5375" t="n">
+        <v>865610082.3200001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5375"/>
+  <dimension ref="A1:B5376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54185,6 +54185,16 @@
         <v>865610082.3200001</v>
       </c>
     </row>
+    <row r="5376">
+      <c r="A5376" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B5376" t="n">
+        <v>1089165928.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5376"/>
+  <dimension ref="A1:B5377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54195,6 +54195,16 @@
         <v>1089165928.99</v>
       </c>
     </row>
+    <row r="5377">
+      <c r="A5377" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B5377" t="n">
+        <v>1188749384.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5377"/>
+  <dimension ref="A1:B5378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54205,6 +54205,16 @@
         <v>1188749384.19</v>
       </c>
     </row>
+    <row r="5378">
+      <c r="A5378" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B5378" t="n">
+        <v>1082611043.22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5378"/>
+  <dimension ref="A1:B5379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54215,6 +54215,16 @@
         <v>1082611043.22</v>
       </c>
     </row>
+    <row r="5379">
+      <c r="A5379" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B5379" t="n">
+        <v>1146294045.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5379"/>
+  <dimension ref="A1:B5380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54225,6 +54225,16 @@
         <v>1146294045.76</v>
       </c>
     </row>
+    <row r="5380">
+      <c r="A5380" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B5380" t="n">
+        <v>1061383379.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5380"/>
+  <dimension ref="A1:B5381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54235,6 +54235,16 @@
         <v>1061383379.1</v>
       </c>
     </row>
+    <row r="5381">
+      <c r="A5381" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B5381" t="n">
+        <v>1018928040.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5381"/>
+  <dimension ref="A1:B5382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54245,6 +54245,16 @@
         <v>1018928040.68</v>
       </c>
     </row>
+    <row r="5382">
+      <c r="A5382" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B5382" t="n">
+        <v>1082611043.22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5382"/>
+  <dimension ref="A1:B5383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54255,6 +54255,16 @@
         <v>1082611043.22</v>
       </c>
     </row>
+    <row r="5383">
+      <c r="A5383" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B5383" t="n">
+        <v>997700376.5599999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5383"/>
+  <dimension ref="A1:B5384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54265,6 +54265,16 @@
         <v>997700376.5599999</v>
       </c>
     </row>
+    <row r="5384">
+      <c r="A5384" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B5384" t="n">
+        <v>934017374.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5384"/>
+  <dimension ref="A1:B5385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54275,6 +54275,16 @@
         <v>934017374.02</v>
       </c>
     </row>
+    <row r="5385">
+      <c r="A5385" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B5385" t="n">
+        <v>1096762822.69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5385"/>
+  <dimension ref="A1:B5386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54285,6 +54285,16 @@
         <v>1096762822.69</v>
       </c>
     </row>
+    <row r="5386">
+      <c r="A5386" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B5386" t="n">
+        <v>1167521709.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5386"/>
+  <dimension ref="A1:B5387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54295,6 +54295,16 @@
         <v>1167521709.88</v>
       </c>
     </row>
+    <row r="5387">
+      <c r="A5387" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B5387" t="n">
+        <v>990624481.73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5387"/>
+  <dimension ref="A1:B5388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54305,6 +54305,16 @@
         <v>990624481.73</v>
       </c>
     </row>
+    <row r="5388">
+      <c r="A5388" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B5388" t="n">
+        <v>1139218161.12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5388"/>
+  <dimension ref="A1:B5389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54315,6 +54315,16 @@
         <v>1139218161.12</v>
       </c>
     </row>
+    <row r="5389">
+      <c r="A5389" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B5389" t="n">
+        <v>1079018824.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5389"/>
+  <dimension ref="A1:B5390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54325,6 +54325,16 @@
         <v>1079018824.24</v>
       </c>
     </row>
+    <row r="5390">
+      <c r="A5390" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B5390" t="n">
+        <v>1019764931.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5390"/>
+  <dimension ref="A1:B5391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54335,6 +54335,16 @@
         <v>1019764931.68</v>
       </c>
     </row>
+    <row r="5391">
+      <c r="A5391" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B5391" t="n">
+        <v>884796043.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5391"/>
+  <dimension ref="A1:B5392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54345,6 +54345,16 @@
         <v>884796043.03</v>
       </c>
     </row>
+    <row r="5392">
+      <c r="A5392" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B5392" t="n">
+        <v>1004768398.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5392"/>
+  <dimension ref="A1:B5393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54355,6 +54355,16 @@
         <v>1004768398.09</v>
       </c>
     </row>
+    <row r="5393">
+      <c r="A5393" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B5393" t="n">
+        <v>1117242464.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5393"/>
+  <dimension ref="A1:B5394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54365,6 +54365,16 @@
         <v>1117242464.77</v>
       </c>
     </row>
+    <row r="5394">
+      <c r="A5394" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B5394" t="n">
+        <v>922287409.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5394"/>
+  <dimension ref="A1:B5395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54375,6 +54375,16 @@
         <v>922287409.38</v>
       </c>
     </row>
+    <row r="5395">
+      <c r="A5395" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B5395" t="n">
+        <v>1034761476.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5395"/>
+  <dimension ref="A1:B5396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54385,6 +54385,16 @@
         <v>1034761476.06</v>
       </c>
     </row>
+    <row r="5396">
+      <c r="A5396" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B5396" t="n">
+        <v>1109744197.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5396"/>
+  <dimension ref="A1:B5397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54395,6 +54395,16 @@
         <v>1109744197.98</v>
       </c>
     </row>
+    <row r="5397">
+      <c r="A5397" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B5397" t="n">
+        <v>899792587.41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5397"/>
+  <dimension ref="A1:B5398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54405,6 +54405,16 @@
         <v>899792587.41</v>
       </c>
     </row>
+    <row r="5398">
+      <c r="A5398" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B5398" t="n">
+        <v>989771853.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5398"/>
+  <dimension ref="A1:B5399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54415,6 +54415,16 @@
         <v>989771853.71</v>
       </c>
     </row>
+    <row r="5399">
+      <c r="A5399" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="B5399" t="n">
+        <v>1102245920.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5399"/>
+  <dimension ref="A1:B5400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54425,6 +54425,16 @@
         <v>1102245920.39</v>
       </c>
     </row>
+    <row r="5400">
+      <c r="A5400" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="B5400" t="n">
+        <v>1087249376</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5400"/>
+  <dimension ref="A1:B5401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54435,6 +54435,16 @@
         <v>1087249376</v>
       </c>
     </row>
+    <row r="5401">
+      <c r="A5401" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B5401" t="n">
+        <v>1139737286.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5401"/>
+  <dimension ref="A1:B5402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54445,6 +54445,16 @@
         <v>1139737286.74</v>
       </c>
     </row>
+    <row r="5402">
+      <c r="A5402" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B5402" t="n">
+        <v>1267207897.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5402"/>
+  <dimension ref="A1:B5403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54455,6 +54455,16 @@
         <v>1267207897.8</v>
       </c>
     </row>
+    <row r="5403">
+      <c r="A5403" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B5403" t="n">
+        <v>1079751109.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5403"/>
+  <dimension ref="A1:B5404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54465,6 +54465,16 @@
         <v>1079751109.21</v>
       </c>
     </row>
+    <row r="5404">
+      <c r="A5404" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B5404" t="n">
+        <v>1123253238.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5404"/>
+  <dimension ref="A1:B5405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54475,6 +54475,16 @@
         <v>1123253238.74</v>
       </c>
     </row>
+    <row r="5405">
+      <c r="A5405" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B5405" t="n">
+        <v>1159633835.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5405"/>
+  <dimension ref="A1:B5406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54485,6 +54485,16 @@
         <v>1159633835.71</v>
       </c>
     </row>
+    <row r="5406">
+      <c r="A5406" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="B5406" t="n">
+        <v>1203393595.96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5406"/>
+  <dimension ref="A1:B5407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54495,6 +54495,16 @@
         <v>1203393595.96</v>
       </c>
     </row>
+    <row r="5407">
+      <c r="A5407" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B5407" t="n">
+        <v>1013767943.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5407"/>
+  <dimension ref="A1:B5408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54505,6 +54505,16 @@
         <v>1013767943.7</v>
       </c>
     </row>
+    <row r="5408">
+      <c r="A5408" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B5408" t="n">
+        <v>1086700884.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5408"/>
+  <dimension ref="A1:B5410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54515,6 +54515,26 @@
         <v>1086700884.45</v>
       </c>
     </row>
+    <row r="5409">
+      <c r="A5409" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B5409" t="n">
+        <v>1093994184.83</v>
+      </c>
+    </row>
+    <row r="5410">
+      <c r="A5410" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B5410" t="n">
+        <v>1115874064.96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5410"/>
+  <dimension ref="A1:B5411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54535,6 +54535,16 @@
         <v>1115874064.96</v>
       </c>
     </row>
+    <row r="5411">
+      <c r="A5411" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B5411" t="n">
+        <v>1035647823.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5411"/>
+  <dimension ref="A1:B5412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54545,6 +54545,16 @@
         <v>1035647823.83</v>
       </c>
     </row>
+    <row r="5412">
+      <c r="A5412" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B5412" t="n">
+        <v>1305499727.72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5412"/>
+  <dimension ref="A1:B5413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54555,6 +54555,16 @@
         <v>1305499727.72</v>
       </c>
     </row>
+    <row r="5413">
+      <c r="A5413" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B5413" t="n">
+        <v>1166927125.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5413"/>
+  <dimension ref="A1:B5414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54565,6 +54565,16 @@
         <v>1166927125.58</v>
       </c>
     </row>
+    <row r="5414">
+      <c r="A5414" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B5414" t="n">
+        <v>1072114294.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5414"/>
+  <dimension ref="A1:B5420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54575,6 +54575,66 @@
         <v>1072114294.2</v>
       </c>
     </row>
+    <row r="5415">
+      <c r="A5415" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B5415" t="n">
+        <v>1235778834</v>
+      </c>
+    </row>
+    <row r="5416">
+      <c r="A5416" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B5416" t="n">
+        <v>1135878634</v>
+      </c>
+    </row>
+    <row r="5417">
+      <c r="A5417" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B5417" t="n">
+        <v>1109878834</v>
+      </c>
+    </row>
+    <row r="5418">
+      <c r="A5418" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B5418" t="n">
+        <v>1172878834.57</v>
+      </c>
+    </row>
+    <row r="5419">
+      <c r="A5419" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B5419" t="n">
+        <v>1085019777.59</v>
+      </c>
+    </row>
+    <row r="5420">
+      <c r="A5420" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B5420" t="n">
+        <v>1073285918.84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5420"/>
+  <dimension ref="A1:B5421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54635,6 +54635,16 @@
         <v>1073285918.84</v>
       </c>
     </row>
+    <row r="5421">
+      <c r="A5421" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B5421" t="n">
+        <v>1197424820.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5421"/>
+  <dimension ref="A1:B5423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54645,6 +54645,26 @@
         <v>1197424820.46</v>
       </c>
     </row>
+    <row r="5422">
+      <c r="A5422" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B5422" t="n">
+        <v>1077120794.84</v>
+      </c>
+    </row>
+    <row r="5423">
+      <c r="A5423" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B5423" t="n">
+        <v>1031081332.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5423"/>
+  <dimension ref="A1:B5424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54665,6 +54665,16 @@
         <v>1031081332.48</v>
       </c>
     </row>
+    <row r="5424">
+      <c r="A5424" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B5424" t="n">
+        <v>1065709280.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5424"/>
+  <dimension ref="A1:B5425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54675,6 +54675,16 @@
         <v>1065709280.77</v>
       </c>
     </row>
+    <row r="5425">
+      <c r="A5425" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B5425" t="n">
+        <v>1054041568.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5425"/>
+  <dimension ref="A1:B5434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54685,6 +54685,96 @@
         <v>1054041568.44</v>
       </c>
     </row>
+    <row r="5426">
+      <c r="A5426" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B5426" t="n">
+        <v>1088263465.65</v>
+      </c>
+    </row>
+    <row r="5427">
+      <c r="A5427" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B5427" t="n">
+        <v>955809034.11</v>
+      </c>
+    </row>
+    <row r="5428">
+      <c r="A5428" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B5428" t="n">
+        <v>1071557216.17</v>
+      </c>
+    </row>
+    <row r="5429">
+      <c r="A5429" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B5429" t="n">
+        <v>1041849602.4</v>
+      </c>
+    </row>
+    <row r="5430">
+      <c r="A5430" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B5430" t="n">
+        <v>1157455106.37</v>
+      </c>
+    </row>
+    <row r="5431">
+      <c r="A5431" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B5431" t="n">
+        <v>1087787634.29</v>
+      </c>
+    </row>
+    <row r="5432">
+      <c r="A5432" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B5432" t="n">
+        <v>1207172194.75</v>
+      </c>
+    </row>
+    <row r="5433">
+      <c r="A5433" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B5433" t="n">
+        <v>1099870819.3</v>
+      </c>
+    </row>
+    <row r="5434">
+      <c r="A5434" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="B5434" t="n">
+        <v>1054844130.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5434"/>
+  <dimension ref="A1:B5443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54775,6 +54775,96 @@
         <v>1054844130.03</v>
       </c>
     </row>
+    <row r="5435">
+      <c r="A5435" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="B5435" t="n">
+        <v>1182852570.03</v>
+      </c>
+    </row>
+    <row r="5436">
+      <c r="A5436" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B5436" t="n">
+        <v>980832122.86</v>
+      </c>
+    </row>
+    <row r="5437">
+      <c r="A5437" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B5437" t="n">
+        <v>1039326580.58</v>
+      </c>
+    </row>
+    <row r="5438">
+      <c r="A5438" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B5438" t="n">
+        <v>1027903414.86</v>
+      </c>
+    </row>
+    <row r="5439">
+      <c r="A5439" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B5439" t="n">
+        <v>972285713.42</v>
+      </c>
+    </row>
+    <row r="5440">
+      <c r="A5440" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="B5440" t="n">
+        <v>1147205471.52</v>
+      </c>
+    </row>
+    <row r="5441">
+      <c r="A5441" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B5441" t="n">
+        <v>1084457455.1</v>
+      </c>
+    </row>
+    <row r="5442">
+      <c r="A5442" t="inlineStr">
+        <is>
+          <t>2025-11-23</t>
+        </is>
+      </c>
+      <c r="B5442" t="n">
+        <v>1064044772.54</v>
+      </c>
+    </row>
+    <row r="5443">
+      <c r="A5443" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="B5443" t="n">
+        <v>1088656988.64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5443"/>
+  <dimension ref="A1:B5445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54865,6 +54865,26 @@
         <v>1088656988.64</v>
       </c>
     </row>
+    <row r="5444">
+      <c r="A5444" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="B5444" t="n">
+        <v>927099404.16</v>
+      </c>
+    </row>
+    <row r="5445">
+      <c r="A5445" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B5445" t="n">
+        <v>1262433495.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5445"/>
+  <dimension ref="A1:B5448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54885,6 +54885,36 @@
         <v>1262433495.62</v>
       </c>
     </row>
+    <row r="5446">
+      <c r="A5446" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="B5446" t="n">
+        <v>1060313503.99</v>
+      </c>
+    </row>
+    <row r="5447">
+      <c r="A5447" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B5447" t="n">
+        <v>1116383148.57</v>
+      </c>
+    </row>
+    <row r="5448">
+      <c r="A5448" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B5448" t="n">
+        <v>1035579083.87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5448"/>
+  <dimension ref="A1:B5450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54915,6 +54915,26 @@
         <v>1035579083.87</v>
       </c>
     </row>
+    <row r="5449">
+      <c r="A5449" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="B5449" t="n">
+        <v>1260277272.43</v>
+      </c>
+    </row>
+    <row r="5450">
+      <c r="A5450" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="B5450" t="n">
+        <v>1012006309.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5450"/>
+  <dimension ref="A1:B5451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54935,6 +54935,16 @@
         <v>1012006309.94</v>
       </c>
     </row>
+    <row r="5451">
+      <c r="A5451" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="B5451" t="n">
+        <v>967291157.3200001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5451"/>
+  <dimension ref="A1:B5452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54945,6 +54945,16 @@
         <v>967291157.3200001</v>
       </c>
     </row>
+    <row r="5452">
+      <c r="A5452" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B5452" t="n">
+        <v>966006023.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5452"/>
+  <dimension ref="A1:B5453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54955,6 +54955,16 @@
         <v>966006023.13</v>
       </c>
     </row>
+    <row r="5453">
+      <c r="A5453" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B5453" t="n">
+        <v>987007949.79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5453"/>
+  <dimension ref="A1:B5457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54965,6 +54965,46 @@
         <v>987007949.79</v>
       </c>
     </row>
+    <row r="5454">
+      <c r="A5454" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="B5454" t="n">
+        <v>879450234.77</v>
+      </c>
+    </row>
+    <row r="5455">
+      <c r="A5455" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+      <c r="B5455" t="n">
+        <v>1214271832.19</v>
+      </c>
+    </row>
+    <row r="5456">
+      <c r="A5456" t="inlineStr">
+        <is>
+          <t>2025-12-07</t>
+        </is>
+      </c>
+      <c r="B5456" t="n">
+        <v>1190875880.2</v>
+      </c>
+    </row>
+    <row r="5457">
+      <c r="A5457" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B5457" t="n">
+        <v>1079488382.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5457"/>
+  <dimension ref="A1:B5458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55005,6 +55005,16 @@
         <v>1079488382.77</v>
       </c>
     </row>
+    <row r="5458">
+      <c r="A5458" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="B5458" t="n">
+        <v>948151922.6900001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5458"/>
+  <dimension ref="A1:B5460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55015,6 +55015,26 @@
         <v>948151922.6900001</v>
       </c>
     </row>
+    <row r="5459">
+      <c r="A5459" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B5459" t="n">
+        <v>1144769172.37</v>
+      </c>
+    </row>
+    <row r="5460">
+      <c r="A5460" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B5460" t="n">
+        <v>1182086738.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5460"/>
+  <dimension ref="A1:B5463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55035,6 +55035,36 @@
         <v>1182086738.71</v>
       </c>
     </row>
+    <row r="5461">
+      <c r="A5461" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="B5461" t="n">
+        <v>1067337423.56</v>
+      </c>
+    </row>
+    <row r="5462">
+      <c r="A5462" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="B5462" t="n">
+        <v>1049326073.99</v>
+      </c>
+    </row>
+    <row r="5463">
+      <c r="A5463" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="B5463" t="n">
+        <v>919858432.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5463"/>
+  <dimension ref="A1:B5465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55065,6 +55065,26 @@
         <v>919858432.3</v>
       </c>
     </row>
+    <row r="5464">
+      <c r="A5464" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B5464" t="n">
+        <v>991685517.03</v>
+      </c>
+    </row>
+    <row r="5465">
+      <c r="A5465" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B5465" t="n">
+        <v>1087846821.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5465"/>
+  <dimension ref="A1:B5466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55085,6 +55085,16 @@
         <v>1087846821.09</v>
       </c>
     </row>
+    <row r="5466">
+      <c r="A5466" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B5466" t="n">
+        <v>1012253679.43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5466"/>
+  <dimension ref="A1:B5467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55095,6 +55095,16 @@
         <v>1012253679.43</v>
       </c>
     </row>
+    <row r="5467">
+      <c r="A5467" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B5467" t="n">
+        <v>1056583828</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5467"/>
+  <dimension ref="A1:B5470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55105,6 +55105,36 @@
         <v>1056583828</v>
       </c>
     </row>
+    <row r="5468">
+      <c r="A5468" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="B5468" t="n">
+        <v>1071429802.81</v>
+      </c>
+    </row>
+    <row r="5469">
+      <c r="A5469" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B5469" t="n">
+        <v>1091994208.75</v>
+      </c>
+    </row>
+    <row r="5470">
+      <c r="A5470" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="B5470" t="n">
+        <v>1018371986.61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5470"/>
+  <dimension ref="A1:B5474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55135,6 +55135,46 @@
         <v>1018371986.61</v>
       </c>
     </row>
+    <row r="5471">
+      <c r="A5471" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="B5471" t="n">
+        <v>1047646921.99</v>
+      </c>
+    </row>
+    <row r="5472">
+      <c r="A5472" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="B5472" t="n">
+        <v>1074784342.11</v>
+      </c>
+    </row>
+    <row r="5473">
+      <c r="A5473" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B5473" t="n">
+        <v>1166544067.29</v>
+      </c>
+    </row>
+    <row r="5474">
+      <c r="A5474" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="B5474" t="n">
+        <v>1032533400.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_hashrate.xlsx
+++ b/data_cripto/btc_hashrate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5474"/>
+  <dimension ref="A1:B5477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55175,6 +55175,36 @@
         <v>1032533400.06</v>
       </c>
     </row>
+    <row r="5475">
+      <c r="A5475" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="B5475" t="n">
+        <v>1166372966.44</v>
+      </c>
+    </row>
+    <row r="5476">
+      <c r="A5476" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B5476" t="n">
+        <v>1002893735.49</v>
+      </c>
+    </row>
+    <row r="5477">
+      <c r="A5477" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="B5477" t="n">
+        <v>1153650178.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
